--- a/Inputs/Scenarios.xlsx
+++ b/Inputs/Scenarios.xlsx
@@ -135,9 +135,6 @@
   </x:si>
   <x:si>
     <x:t>Dont show Menulog kiosk items</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
   </x:si>
 </x:sst>
 </file>
@@ -590,7 +587,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -616,7 +613,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -642,7 +639,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -668,7 +665,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -694,7 +691,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -720,7 +717,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
